--- a/doc/coeus/配置/item/item.xlsx
+++ b/doc/coeus/配置/item/item.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,18 @@
     <t>0-不分职业，
 1-剑士，
 2-枪手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大叠加上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ioverlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚丸（小）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,10 +500,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -499,11 +511,11 @@
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="22.875" customWidth="1"/>
-    <col min="4" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="4" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -520,16 +532,19 @@
         <v>24</v>
       </c>
       <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -546,21 +561,25 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="47.25" customHeight="1">
       <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>10000000</v>
       </c>
@@ -574,10 +593,13 @@
         <v>13</v>
       </c>
       <c r="F4">
+        <v>65535</v>
+      </c>
+      <c r="G4">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>20000000</v>
       </c>
@@ -590,25 +612,34 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="G5">
+      <c r="F5">
+        <v>65535</v>
+      </c>
+      <c r="H5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>30000000</v>
       </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="H6">
+      <c r="F6">
+        <v>65535</v>
+      </c>
+      <c r="I6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>40000000</v>
       </c>
@@ -621,11 +652,14 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>40000001</v>
       </c>
@@ -638,7 +672,10 @@
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="G8">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>25</v>
       </c>
     </row>
